--- a/Compiled_2017.xlsx
+++ b/Compiled_2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shounak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\Chapter78_Research\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3909A-0B64-4EAE-BA26-E0994ABA2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A2315-1FCE-407C-A1AB-788E40E8453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled_2017" sheetId="1" r:id="rId1"/>
@@ -4479,10 +4479,16 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4492,12 +4498,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4807,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="H367" sqref="H367"/>
+    <sheetView topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="F356" sqref="F356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44749,10 +44749,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE374"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -45418,7 +45419,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -45513,7 +45514,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -45703,7 +45704,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -45798,7 +45799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -45893,7 +45894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -45988,7 +45989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -46083,7 +46084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -46273,7 +46274,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -46368,7 +46369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -46460,7 +46461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -46745,7 +46746,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -47125,7 +47126,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -47315,7 +47316,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -47686,7 +47687,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -47781,7 +47782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -47876,7 +47877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -48161,7 +48162,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -48256,7 +48257,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>126</v>
       </c>
@@ -48446,7 +48447,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>132</v>
       </c>
@@ -48636,7 +48637,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -49010,7 +49011,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -49102,7 +49103,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>150</v>
       </c>
@@ -49194,7 +49195,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -49473,7 +49474,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -49660,7 +49661,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -49755,7 +49756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -50040,7 +50041,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -50135,7 +50136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -50230,7 +50231,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -50420,7 +50421,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -50895,7 +50896,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -50990,7 +50991,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>196</v>
       </c>
@@ -51085,7 +51086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -51275,7 +51276,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -51465,7 +51466,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -51652,7 +51653,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -52023,7 +52024,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>219</v>
       </c>
@@ -52118,7 +52119,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -52213,7 +52214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -52498,7 +52499,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -52688,7 +52689,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>236</v>
       </c>
@@ -52783,7 +52784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>238</v>
       </c>
@@ -52878,7 +52879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>241</v>
       </c>
@@ -53068,7 +53069,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>245</v>
       </c>
@@ -53258,7 +53259,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>249</v>
       </c>
@@ -53353,7 +53354,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -53448,7 +53449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -53920,7 +53921,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>265</v>
       </c>
@@ -54015,7 +54016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>267</v>
       </c>
@@ -54490,7 +54491,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>278</v>
       </c>
@@ -54775,7 +54776,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>284</v>
       </c>
@@ -54870,7 +54871,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>286</v>
       </c>
@@ -55060,7 +55061,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>290</v>
       </c>
@@ -55247,7 +55248,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>294</v>
       </c>
@@ -55437,7 +55438,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>299</v>
       </c>
@@ -55532,7 +55533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>301</v>
       </c>
@@ -55627,7 +55628,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>304</v>
       </c>
@@ -55722,7 +55723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>306</v>
       </c>
@@ -56004,7 +56005,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>313</v>
       </c>
@@ -56384,7 +56385,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>321</v>
       </c>
@@ -56476,7 +56477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>323</v>
       </c>
@@ -56571,7 +56572,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>325</v>
       </c>
@@ -57610,7 +57611,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>347</v>
       </c>
@@ -57702,7 +57703,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>349</v>
       </c>
@@ -57797,7 +57798,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>351</v>
       </c>
@@ -57892,7 +57893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>353</v>
       </c>
@@ -57987,7 +57988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>355</v>
       </c>
@@ -58082,7 +58083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>357</v>
       </c>
@@ -58177,7 +58178,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>360</v>
       </c>
@@ -58272,7 +58273,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>362</v>
       </c>
@@ -58462,7 +58463,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>366</v>
       </c>
@@ -58557,7 +58558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>368</v>
       </c>
@@ -58652,7 +58653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>370</v>
       </c>
@@ -59311,7 +59312,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>384</v>
       </c>
@@ -59406,7 +59407,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>386</v>
       </c>
@@ -59498,7 +59499,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>387</v>
       </c>
@@ -59780,7 +59781,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>393</v>
       </c>
@@ -60160,7 +60161,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>402</v>
       </c>
@@ -60255,7 +60256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>404</v>
       </c>
@@ -60350,7 +60351,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>406</v>
       </c>
@@ -60445,7 +60446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>408</v>
       </c>
@@ -60635,7 +60636,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="169" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>412</v>
       </c>
@@ -60825,7 +60826,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>416</v>
       </c>
@@ -60920,7 +60921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>418</v>
       </c>
@@ -61202,7 +61203,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>425</v>
       </c>
@@ -61297,7 +61298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>427</v>
       </c>
@@ -61487,7 +61488,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="178" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>431</v>
       </c>
@@ -61867,7 +61868,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="182" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>439</v>
       </c>
@@ -62054,7 +62055,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="184" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>443</v>
       </c>
@@ -62244,7 +62245,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>447</v>
       </c>
@@ -62339,7 +62340,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>449</v>
       </c>
@@ -62903,7 +62904,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>461</v>
       </c>
@@ -63185,7 +63186,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>467</v>
       </c>
@@ -63280,7 +63281,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>469</v>
       </c>
@@ -63375,7 +63376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>471</v>
       </c>
@@ -63470,7 +63471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>473</v>
       </c>
@@ -63565,7 +63566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>475</v>
       </c>
@@ -63945,7 +63946,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>483</v>
       </c>
@@ -64135,7 +64136,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>487</v>
       </c>
@@ -64227,7 +64228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>489</v>
       </c>
@@ -64322,7 +64323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>491</v>
       </c>
@@ -64512,7 +64513,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="210" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>495</v>
       </c>
@@ -64607,7 +64608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>497</v>
       </c>
@@ -64892,7 +64893,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>504</v>
       </c>
@@ -65367,7 +65368,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="219" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>515</v>
       </c>
@@ -65462,7 +65463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>517</v>
       </c>
@@ -65557,7 +65558,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>519</v>
       </c>
@@ -65842,7 +65843,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="224" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>525</v>
       </c>
@@ -66409,7 +66410,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="230" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>537</v>
       </c>
@@ -66599,7 +66600,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="232" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>541</v>
       </c>
@@ -66789,7 +66790,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="234" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>545</v>
       </c>
@@ -67074,7 +67075,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>551</v>
       </c>
@@ -67359,7 +67360,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="240" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>557</v>
       </c>
@@ -67834,7 +67835,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="245" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>566</v>
       </c>
@@ -68024,7 +68025,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>570</v>
       </c>
@@ -68119,7 +68120,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>572</v>
       </c>
@@ -68214,7 +68215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>574</v>
       </c>
@@ -68309,7 +68310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>576</v>
       </c>
@@ -68404,7 +68405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>578</v>
       </c>
@@ -68499,7 +68500,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>580</v>
       </c>
@@ -68879,7 +68880,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="256" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>587</v>
       </c>
@@ -68974,7 +68975,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="257" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>589</v>
       </c>
@@ -69164,7 +69165,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="259" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>593</v>
       </c>
@@ -69449,7 +69450,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="262" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>599</v>
       </c>
@@ -70019,7 +70020,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>611</v>
       </c>
@@ -70114,7 +70115,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>613</v>
       </c>
@@ -70209,7 +70210,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="270" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>615</v>
       </c>
@@ -70494,7 +70495,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>621</v>
       </c>
@@ -70589,7 +70590,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>623</v>
       </c>
@@ -70969,7 +70970,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>632</v>
       </c>
@@ -71159,7 +71160,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>636</v>
       </c>
@@ -71444,7 +71445,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>642</v>
       </c>
@@ -71539,7 +71540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>644</v>
       </c>
@@ -71821,7 +71822,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="287" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>650</v>
       </c>
@@ -71913,7 +71914,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="288" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>652</v>
       </c>
@@ -72008,7 +72009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>654</v>
       </c>
@@ -72198,7 +72199,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="291" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>658</v>
       </c>
@@ -72293,7 +72294,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="292" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>660</v>
       </c>
@@ -72388,7 +72389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>662</v>
       </c>
@@ -72483,7 +72484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>664</v>
       </c>
@@ -72673,7 +72674,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="296" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>668</v>
       </c>
@@ -72863,7 +72864,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="298" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>672</v>
       </c>
@@ -72955,7 +72956,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="299" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>674</v>
       </c>
@@ -73050,7 +73051,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="300" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>676</v>
       </c>
@@ -73145,7 +73146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>678</v>
       </c>
@@ -73240,7 +73241,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>680</v>
       </c>
@@ -73332,7 +73333,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="303" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>682</v>
       </c>
@@ -73519,7 +73520,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="305" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>686</v>
       </c>
@@ -73614,7 +73615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>688</v>
       </c>
@@ -73709,7 +73710,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="307" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>690</v>
       </c>
@@ -73899,7 +73900,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="309" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>694</v>
       </c>
@@ -73994,7 +73995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>696</v>
       </c>
@@ -74089,7 +74090,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>698</v>
       </c>
@@ -74184,7 +74185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>700</v>
       </c>
@@ -74374,7 +74375,7 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="314" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>704</v>
       </c>
@@ -74659,7 +74660,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="317" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>710</v>
       </c>
@@ -74849,7 +74850,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>714</v>
       </c>
@@ -74944,7 +74945,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="320" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>716</v>
       </c>
@@ -75039,7 +75040,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>718</v>
       </c>
@@ -75134,7 +75135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>720</v>
       </c>
@@ -75321,7 +75322,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="324" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>724</v>
       </c>
@@ -75416,7 +75417,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="325" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>726</v>
       </c>
@@ -75511,7 +75512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>728</v>
       </c>
@@ -75701,7 +75702,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>732</v>
       </c>
@@ -75891,7 +75892,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="330" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>736</v>
       </c>
@@ -76081,7 +76082,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>740</v>
       </c>
@@ -76176,7 +76177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>742</v>
       </c>
@@ -76271,7 +76272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>744</v>
       </c>
@@ -76461,7 +76462,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>748</v>
       </c>
@@ -76556,7 +76557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>750</v>
       </c>
@@ -76648,7 +76649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>752</v>
       </c>
@@ -76743,7 +76744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>754</v>
       </c>
@@ -76838,7 +76839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>756</v>
       </c>
@@ -77595,7 +77596,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="348" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>771</v>
       </c>
@@ -77690,7 +77691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>773</v>
       </c>
@@ -77880,7 +77881,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="351" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>777</v>
       </c>
@@ -78067,7 +78068,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="353" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>781</v>
       </c>
@@ -78257,7 +78258,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="355" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>785</v>
       </c>
@@ -78352,7 +78353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>787</v>
       </c>
@@ -78447,7 +78448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>789</v>
       </c>
@@ -78542,7 +78543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>791</v>
       </c>
@@ -78827,7 +78828,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="361" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>797</v>
       </c>
@@ -78922,7 +78923,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>799</v>
       </c>
@@ -79017,7 +79018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>801</v>
       </c>
@@ -79109,7 +79110,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="364" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>803</v>
       </c>
@@ -79204,7 +79205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>805</v>
       </c>
@@ -79299,7 +79300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>807</v>
       </c>
@@ -79486,7 +79487,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="368" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>811</v>
       </c>
@@ -79673,7 +79674,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="370" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>814</v>
       </c>
@@ -79768,7 +79769,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="371" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>816</v>
       </c>
@@ -80050,7 +80051,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="374" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>822</v>
       </c>
@@ -80143,13 +80144,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE374" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="HACK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AE374" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -80165,39 +80160,39 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>839</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>838</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="5" t="s">
         <v>840</v>
       </c>
@@ -80267,7 +80262,7 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>840</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -80342,7 +80337,7 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="13" t="s">
         <v>846</v>
       </c>
@@ -80413,7 +80408,7 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="17" t="s">
         <v>847</v>
       </c>
@@ -80486,7 +80481,7 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>837</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -80561,7 +80556,7 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="13" t="s">
         <v>846</v>
       </c>
@@ -80632,7 +80627,7 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="17" t="s">
         <v>847</v>
       </c>
@@ -80705,7 +80700,7 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>836</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -80780,7 +80775,7 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="13" t="s">
         <v>846</v>
       </c>
@@ -80851,7 +80846,7 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="17" t="s">
         <v>847</v>
       </c>
@@ -80924,7 +80919,7 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -80999,7 +80994,7 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="13" t="s">
         <v>846</v>
       </c>
@@ -81070,7 +81065,7 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="17" t="s">
         <v>847</v>
       </c>
@@ -81143,7 +81138,7 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -81218,7 +81213,7 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="13" t="s">
         <v>846</v>
       </c>
@@ -81289,7 +81284,7 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="17" t="s">
         <v>847</v>
       </c>
@@ -81362,7 +81357,7 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>841</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -81437,7 +81432,7 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="13" t="s">
         <v>846</v>
       </c>
@@ -81508,7 +81503,7 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="17" t="s">
         <v>847</v>
       </c>
@@ -81581,7 +81576,7 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -81656,7 +81651,7 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="13" t="s">
         <v>846</v>
       </c>
@@ -81727,7 +81722,7 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="17" t="s">
         <v>847</v>
       </c>
@@ -81800,7 +81795,7 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -81875,7 +81870,7 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="13" t="s">
         <v>846</v>
       </c>
@@ -81946,7 +81941,7 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="17" t="s">
         <v>847</v>
       </c>
@@ -82019,7 +82014,7 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -82094,7 +82089,7 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="13" t="s">
         <v>846</v>
       </c>
@@ -82165,7 +82160,7 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="17" t="s">
         <v>847</v>
       </c>
@@ -82238,7 +82233,7 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="34" t="s">
         <v>824</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -82313,7 +82308,7 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="13" t="s">
         <v>846</v>
       </c>
@@ -82384,7 +82379,7 @@
       <c r="Y31" s="4"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="17" t="s">
         <v>847</v>
       </c>
@@ -82457,7 +82452,7 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="34" t="s">
         <v>825</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -82532,7 +82527,7 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="13" t="s">
         <v>846</v>
       </c>
@@ -82603,7 +82598,7 @@
       <c r="Y34" s="4"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="17" t="s">
         <v>847</v>
       </c>
@@ -82676,7 +82671,7 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>826</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -82751,7 +82746,7 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="13" t="s">
         <v>846</v>
       </c>
@@ -82822,7 +82817,7 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="17" t="s">
         <v>847</v>
       </c>
@@ -82895,7 +82890,7 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="34" t="s">
         <v>828</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -82970,7 +82965,7 @@
       <c r="Y39" s="4"/>
     </row>
     <row r="40" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="13" t="s">
         <v>846</v>
       </c>
@@ -83041,7 +83036,7 @@
       <c r="Y40" s="4"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="17" t="s">
         <v>847</v>
       </c>
@@ -83114,7 +83109,7 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>829</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -83189,7 +83184,7 @@
       <c r="Y42" s="4"/>
     </row>
     <row r="43" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="13" t="s">
         <v>846</v>
       </c>
@@ -83260,7 +83255,7 @@
       <c r="Y43" s="4"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="17" t="s">
         <v>847</v>
       </c>
@@ -83333,7 +83328,7 @@
       <c r="Y44" s="4"/>
     </row>
     <row r="45" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="34" t="s">
         <v>830</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -83408,7 +83403,7 @@
       <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="13" t="s">
         <v>846</v>
       </c>
@@ -83479,7 +83474,7 @@
       <c r="Y46" s="4"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="17" t="s">
         <v>847</v>
       </c>
@@ -83552,7 +83547,7 @@
       <c r="Y47" s="4"/>
     </row>
     <row r="48" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="34" t="s">
         <v>831</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -83627,7 +83622,7 @@
       <c r="Y48" s="4"/>
     </row>
     <row r="49" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="13" t="s">
         <v>846</v>
       </c>
@@ -83698,7 +83693,7 @@
       <c r="Y49" s="4"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="17" t="s">
         <v>847</v>
       </c>
@@ -83771,7 +83766,7 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="34" t="s">
         <v>832</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -83846,7 +83841,7 @@
       <c r="Y51" s="4"/>
     </row>
     <row r="52" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="13" t="s">
         <v>846</v>
       </c>
@@ -83917,7 +83912,7 @@
       <c r="Y52" s="4"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="17" t="s">
         <v>847</v>
       </c>
@@ -83990,7 +83985,7 @@
       <c r="Y53" s="4"/>
     </row>
     <row r="54" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="34" t="s">
         <v>834</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -84065,7 +84060,7 @@
       <c r="Y54" s="4"/>
     </row>
     <row r="55" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="13" t="s">
         <v>846</v>
       </c>
@@ -84136,7 +84131,7 @@
       <c r="Y55" s="4"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" s="33"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="17" t="s">
         <v>847</v>
       </c>
@@ -84209,7 +84204,7 @@
       <c r="Y56" s="4"/>
     </row>
     <row r="57" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="34" t="s">
         <v>835</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -84284,7 +84279,7 @@
       <c r="Y57" s="4"/>
     </row>
     <row r="58" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="13" t="s">
         <v>846</v>
       </c>
@@ -84355,7 +84350,7 @@
       <c r="Y58" s="4"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="17" t="s">
         <v>847</v>
       </c>
@@ -84428,7 +84423,7 @@
       <c r="Y59" s="4"/>
     </row>
     <row r="60" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="34" t="s">
         <v>842</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -84503,7 +84498,7 @@
       <c r="Y60" s="4"/>
     </row>
     <row r="61" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="34"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="13" t="s">
         <v>846</v>
       </c>
@@ -84574,7 +84569,7 @@
       <c r="Y61" s="4"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="17" t="s">
         <v>847</v>
       </c>
@@ -84647,7 +84642,7 @@
       <c r="Y62" s="4"/>
     </row>
     <row r="63" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="34" t="s">
         <v>843</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -84722,7 +84717,7 @@
       <c r="Y63" s="4"/>
     </row>
     <row r="64" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="13" t="s">
         <v>846</v>
       </c>
@@ -84793,7 +84788,7 @@
       <c r="Y64" s="4"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="17" t="s">
         <v>847</v>
       </c>
@@ -84866,7 +84861,7 @@
       <c r="Y65" s="4"/>
     </row>
     <row r="66" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="34" t="s">
         <v>844</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -84941,7 +84936,7 @@
       <c r="Y66" s="4"/>
     </row>
     <row r="67" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="13" t="s">
         <v>846</v>
       </c>
@@ -85012,7 +85007,7 @@
       <c r="Y67" s="4"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="29" t="s">
         <v>847</v>
       </c>
@@ -85085,73 +85080,71 @@
       <c r="Y68" s="4"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="33" t="s">
         <v>848</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
       <c r="Y69" s="4"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="33" t="s">
         <v>849</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
       <c r="Y70" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A69:X69"/>
-    <mergeCell ref="A70:X70"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
@@ -85164,12 +85157,14 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A69:X69"/>
+    <mergeCell ref="A70:X70"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Compiled_2017.xlsx
+++ b/Compiled_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\Chapter78_Research\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A2315-1FCE-407C-A1AB-788E40E8453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786F7CAE-E545-472F-B434-DBC37B422A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4479,16 +4479,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4498,6 +4492,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -44751,11 +44751,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="31" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -80160,39 +80164,39 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>839</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>838</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>840</v>
       </c>
@@ -80262,7 +80266,7 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>840</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -80337,7 +80341,7 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="13" t="s">
         <v>846</v>
       </c>
@@ -80408,7 +80412,7 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="17" t="s">
         <v>847</v>
       </c>
@@ -80481,7 +80485,7 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>837</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -80556,7 +80560,7 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="13" t="s">
         <v>846</v>
       </c>
@@ -80627,7 +80631,7 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="17" t="s">
         <v>847</v>
       </c>
@@ -80700,7 +80704,7 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>836</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -80775,7 +80779,7 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="13" t="s">
         <v>846</v>
       </c>
@@ -80846,7 +80850,7 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="17" t="s">
         <v>847</v>
       </c>
@@ -80919,7 +80923,7 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -80994,7 +80998,7 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="13" t="s">
         <v>846</v>
       </c>
@@ -81065,7 +81069,7 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="17" t="s">
         <v>847</v>
       </c>
@@ -81138,7 +81142,7 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -81213,7 +81217,7 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="13" t="s">
         <v>846</v>
       </c>
@@ -81284,7 +81288,7 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="17" t="s">
         <v>847</v>
       </c>
@@ -81357,7 +81361,7 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>841</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -81432,7 +81436,7 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="13" t="s">
         <v>846</v>
       </c>
@@ -81503,7 +81507,7 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="17" t="s">
         <v>847</v>
       </c>
@@ -81576,7 +81580,7 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -81651,7 +81655,7 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="13" t="s">
         <v>846</v>
       </c>
@@ -81722,7 +81726,7 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="17" t="s">
         <v>847</v>
       </c>
@@ -81795,7 +81799,7 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -81870,7 +81874,7 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="13" t="s">
         <v>846</v>
       </c>
@@ -81941,7 +81945,7 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="17" t="s">
         <v>847</v>
       </c>
@@ -82014,7 +82018,7 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -82089,7 +82093,7 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="13" t="s">
         <v>846</v>
       </c>
@@ -82160,7 +82164,7 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="17" t="s">
         <v>847</v>
       </c>
@@ -82233,7 +82237,7 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>824</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -82308,7 +82312,7 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="13" t="s">
         <v>846</v>
       </c>
@@ -82379,7 +82383,7 @@
       <c r="Y31" s="4"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="17" t="s">
         <v>847</v>
       </c>
@@ -82452,7 +82456,7 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>825</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -82527,7 +82531,7 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="13" t="s">
         <v>846</v>
       </c>
@@ -82598,7 +82602,7 @@
       <c r="Y34" s="4"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="17" t="s">
         <v>847</v>
       </c>
@@ -82671,7 +82675,7 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>826</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -82746,7 +82750,7 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="13" t="s">
         <v>846</v>
       </c>
@@ -82817,7 +82821,7 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="17" t="s">
         <v>847</v>
       </c>
@@ -82890,7 +82894,7 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>828</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -82965,7 +82969,7 @@
       <c r="Y39" s="4"/>
     </row>
     <row r="40" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="13" t="s">
         <v>846</v>
       </c>
@@ -83036,7 +83040,7 @@
       <c r="Y40" s="4"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="17" t="s">
         <v>847</v>
       </c>
@@ -83109,7 +83113,7 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>829</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -83184,7 +83188,7 @@
       <c r="Y42" s="4"/>
     </row>
     <row r="43" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="13" t="s">
         <v>846</v>
       </c>
@@ -83255,7 +83259,7 @@
       <c r="Y43" s="4"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="17" t="s">
         <v>847</v>
       </c>
@@ -83328,7 +83332,7 @@
       <c r="Y44" s="4"/>
     </row>
     <row r="45" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="33" t="s">
         <v>830</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -83403,7 +83407,7 @@
       <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="13" t="s">
         <v>846</v>
       </c>
@@ -83474,7 +83478,7 @@
       <c r="Y46" s="4"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="17" t="s">
         <v>847</v>
       </c>
@@ -83547,7 +83551,7 @@
       <c r="Y47" s="4"/>
     </row>
     <row r="48" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="33" t="s">
         <v>831</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -83622,7 +83626,7 @@
       <c r="Y48" s="4"/>
     </row>
     <row r="49" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="13" t="s">
         <v>846</v>
       </c>
@@ -83693,7 +83697,7 @@
       <c r="Y49" s="4"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="17" t="s">
         <v>847</v>
       </c>
@@ -83766,7 +83770,7 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="33" t="s">
         <v>832</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -83841,7 +83845,7 @@
       <c r="Y51" s="4"/>
     </row>
     <row r="52" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="13" t="s">
         <v>846</v>
       </c>
@@ -83912,7 +83916,7 @@
       <c r="Y52" s="4"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="17" t="s">
         <v>847</v>
       </c>
@@ -83985,7 +83989,7 @@
       <c r="Y53" s="4"/>
     </row>
     <row r="54" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="33" t="s">
         <v>834</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -84060,7 +84064,7 @@
       <c r="Y54" s="4"/>
     </row>
     <row r="55" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="13" t="s">
         <v>846</v>
       </c>
@@ -84131,7 +84135,7 @@
       <c r="Y55" s="4"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="17" t="s">
         <v>847</v>
       </c>
@@ -84204,7 +84208,7 @@
       <c r="Y56" s="4"/>
     </row>
     <row r="57" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="33" t="s">
         <v>835</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -84279,7 +84283,7 @@
       <c r="Y57" s="4"/>
     </row>
     <row r="58" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="13" t="s">
         <v>846</v>
       </c>
@@ -84350,7 +84354,7 @@
       <c r="Y58" s="4"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="17" t="s">
         <v>847</v>
       </c>
@@ -84423,7 +84427,7 @@
       <c r="Y59" s="4"/>
     </row>
     <row r="60" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="33" t="s">
         <v>842</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -84498,7 +84502,7 @@
       <c r="Y60" s="4"/>
     </row>
     <row r="61" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="13" t="s">
         <v>846</v>
       </c>
@@ -84569,7 +84573,7 @@
       <c r="Y61" s="4"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" s="34"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="17" t="s">
         <v>847</v>
       </c>
@@ -84642,7 +84646,7 @@
       <c r="Y62" s="4"/>
     </row>
     <row r="63" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="33" t="s">
         <v>843</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -84717,7 +84721,7 @@
       <c r="Y63" s="4"/>
     </row>
     <row r="64" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="13" t="s">
         <v>846</v>
       </c>
@@ -84788,7 +84792,7 @@
       <c r="Y64" s="4"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="17" t="s">
         <v>847</v>
       </c>
@@ -84861,7 +84865,7 @@
       <c r="Y65" s="4"/>
     </row>
     <row r="66" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="33" t="s">
         <v>844</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -84936,7 +84940,7 @@
       <c r="Y66" s="4"/>
     </row>
     <row r="67" spans="1:25" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="13" t="s">
         <v>846</v>
       </c>
@@ -85007,7 +85011,7 @@
       <c r="Y67" s="4"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A68" s="36"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="29" t="s">
         <v>847</v>
       </c>
@@ -85080,71 +85084,73 @@
       <c r="Y68" s="4"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="38" t="s">
         <v>848</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
       <c r="Y69" s="4"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
-      <c r="R70" s="33"/>
-      <c r="S70" s="33"/>
-      <c r="T70" s="33"/>
-      <c r="U70" s="33"/>
-      <c r="V70" s="33"/>
-      <c r="W70" s="33"/>
-      <c r="X70" s="33"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
       <c r="Y70" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A69:X69"/>
+    <mergeCell ref="A70:X70"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
@@ -85157,14 +85163,12 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A69:X69"/>
-    <mergeCell ref="A70:X70"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
